--- a/实验结果集中版.xlsx
+++ b/实验结果集中版.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="简单结果" sheetId="5" r:id="rId1"/>
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView topLeftCell="D160" workbookViewId="0">
+      <selection activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5574,10 +5574,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5965,6 +5965,41 @@
       </c>
       <c r="L12">
         <v>0.56606060606060604</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C19" s="16">
+        <v>0.55151515151515196</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.55454545454545501</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.57515151515151497</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.57454545454545503</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.57454545454545503</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.56666666666666698</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.57757575757575697</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.58121212121212096</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.57939393939394002</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0.57212121212121203</v>
       </c>
     </row>
   </sheetData>
